--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3194.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3194.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9943792967335967</v>
+        <v>1.349205374717712</v>
       </c>
       <c r="B1">
-        <v>1.565847469046873</v>
+        <v>2.383350372314453</v>
       </c>
       <c r="C1">
-        <v>4.068245035497798</v>
+        <v>2.997998476028442</v>
       </c>
       <c r="D1">
-        <v>5.699888870939999</v>
+        <v>3.449360847473145</v>
       </c>
       <c r="E1">
-        <v>1.877795320968802</v>
+        <v>1.192476153373718</v>
       </c>
     </row>
   </sheetData>
